--- a/branches/hiv-bundle-submit-emr_fig-43/StructureDefinition-hiv-diagnostic-report.xlsx
+++ b/branches/hiv-bundle-submit-emr_fig-43/StructureDefinition-hiv-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T14:53:45+00:00</t>
+    <t>2023-02-15T15:02:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-bundle-submit-emr_fig-43/StructureDefinition-hiv-diagnostic-report.xlsx
+++ b/branches/hiv-bundle-submit-emr_fig-43/StructureDefinition-hiv-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T15:02:29+00:00</t>
+    <t>2023-02-16T09:04:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-bundle-submit-emr_fig-43/StructureDefinition-hiv-diagnostic-report.xlsx
+++ b/branches/hiv-bundle-submit-emr_fig-43/StructureDefinition-hiv-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:04:40+00:00</t>
+    <t>2023-02-16T09:05:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-bundle-submit-emr_fig-43/StructureDefinition-hiv-diagnostic-report.xlsx
+++ b/branches/hiv-bundle-submit-emr_fig-43/StructureDefinition-hiv-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:05:53+00:00</t>
+    <t>2023-02-16T09:13:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
